--- a/ComS 352/352 grades.xlsx
+++ b/ComS 352/352 grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>total</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>in class</t>
+  </si>
+  <si>
+    <t>raw %</t>
+  </si>
+  <si>
+    <t>Final Grade</t>
   </si>
 </sst>
 </file>
@@ -56,7 +62,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +109,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -424,15 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -440,9 +449,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -457,7 +468,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -465,14 +476,21 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <f>SUM(D2:D7)</f>
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -486,8 +504,12 @@
         <f t="shared" si="0"/>
         <v>0.10200000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="str">
+        <f>IF(G3&gt;0.86,"A",IF(G3&gt;0.74,"B",IF(G3&gt;0.62,"C",IF(G3&gt;0.5,"D","F"))))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,14 +517,14 @@
         <v>0.15</v>
       </c>
       <c r="C5" s="2">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +539,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -532,23 +554,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3">
-        <f>SUM(D2:D7)</f>
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4" t="str">
-        <f>IF(D8&gt;0.86,"A",IF(D8&gt;0.74,"B",IF(D8&gt;0.62,"C",IF(D8&gt;0.5,"D","F"))))</f>
-        <v>B</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ComS 352/352 grades.xlsx
+++ b/ComS 352/352 grades.xlsx
@@ -433,12 +433,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -461,11 +462,11 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="2">
-        <v>0.9</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D2" s="3">
         <f>B2*C2</f>
-        <v>0.22500000000000001</v>
+        <v>0.22812499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -476,18 +477,18 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">B3*C3</f>
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <f>SUM(D2:D7)</f>
-        <v>0.76400000000000001</v>
+        <v>0.80662499999999993</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -532,11 +533,11 @@
         <v>0.15</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -547,11 +548,11 @@
         <v>0.05</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
